--- a/natmiOut/OldD0/LR-pairs_lrc2p/Col1a1-Cd36.xlsx
+++ b/natmiOut/OldD0/LR-pairs_lrc2p/Col1a1-Cd36.xlsx
@@ -528,52 +528,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>6.10455201828814</v>
+        <v>10.379369</v>
       </c>
       <c r="H2">
-        <v>6.10455201828814</v>
+        <v>31.138107</v>
       </c>
       <c r="I2">
-        <v>0.009667542218474929</v>
+        <v>0.01614698522449884</v>
       </c>
       <c r="J2">
-        <v>0.009667542218474929</v>
+        <v>0.01614698522449883</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>141.292844182643</v>
+        <v>181.8232256666666</v>
       </c>
       <c r="N2">
-        <v>141.292844182643</v>
+        <v>545.4696769999999</v>
       </c>
       <c r="O2">
-        <v>0.5335176667404401</v>
+        <v>0.5898296910336229</v>
       </c>
       <c r="P2">
-        <v>0.5335176667404401</v>
+        <v>0.5898296910336229</v>
       </c>
       <c r="Q2">
-        <v>862.5295171248249</v>
+        <v>1887.210351964604</v>
       </c>
       <c r="R2">
-        <v>862.5295171248249</v>
+        <v>16984.89316768144</v>
       </c>
       <c r="S2">
-        <v>0.005157804567515442</v>
+        <v>0.009523971306090622</v>
       </c>
       <c r="T2">
-        <v>0.005157804567515442</v>
+        <v>0.009523971306090621</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,52 +590,52 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>6.10455201828814</v>
+        <v>10.379369</v>
       </c>
       <c r="H3">
-        <v>6.10455201828814</v>
+        <v>31.138107</v>
       </c>
       <c r="I3">
-        <v>0.009667542218474929</v>
+        <v>0.01614698522449884</v>
       </c>
       <c r="J3">
-        <v>0.009667542218474929</v>
+        <v>0.01614698522449883</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>2.24362358528559</v>
+        <v>2.367786666666667</v>
       </c>
       <c r="N3">
-        <v>2.24362358528559</v>
+        <v>7.10336</v>
       </c>
       <c r="O3">
-        <v>0.008471857348402325</v>
+        <v>0.007681036748263821</v>
       </c>
       <c r="P3">
-        <v>0.008471857348402325</v>
+        <v>0.007681036748263821</v>
       </c>
       <c r="Q3">
-        <v>13.69631688583402</v>
+        <v>24.57613152661334</v>
       </c>
       <c r="R3">
-        <v>13.69631688583402</v>
+        <v>221.18518373952</v>
       </c>
       <c r="S3">
-        <v>8.190203858457654E-05</v>
+        <v>0.0001240255868830485</v>
       </c>
       <c r="T3">
-        <v>8.190203858457654E-05</v>
+        <v>0.0001240255868830485</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,52 +652,52 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>6.10455201828814</v>
+        <v>10.379369</v>
       </c>
       <c r="H4">
-        <v>6.10455201828814</v>
+        <v>31.138107</v>
       </c>
       <c r="I4">
-        <v>0.009667542218474929</v>
+        <v>0.01614698522449884</v>
       </c>
       <c r="J4">
-        <v>0.009667542218474929</v>
+        <v>0.01614698522449883</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>121.296082287781</v>
+        <v>124.0729296666667</v>
       </c>
       <c r="N4">
-        <v>121.296082287781</v>
+        <v>372.218789</v>
       </c>
       <c r="O4">
-        <v>0.4580104759111576</v>
+        <v>0.4024892722181133</v>
       </c>
       <c r="P4">
-        <v>0.4580104759111576</v>
+        <v>0.4024892722181133</v>
       </c>
       <c r="Q4">
-        <v>740.4582439403179</v>
+        <v>1287.79871992138</v>
       </c>
       <c r="R4">
-        <v>740.4582439403179</v>
+        <v>11590.18847929242</v>
       </c>
       <c r="S4">
-        <v>0.00442783561237491</v>
+        <v>0.006498988331525165</v>
       </c>
       <c r="T4">
-        <v>0.00442783561237491</v>
+        <v>0.006498988331525163</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -714,52 +714,52 @@
         <v>20</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>597.1554463913679</v>
+        <v>604.0312093333333</v>
       </c>
       <c r="H5">
-        <v>597.1554463913679</v>
+        <v>1812.093628</v>
       </c>
       <c r="I5">
-        <v>0.945691915096447</v>
+        <v>0.9396797639857967</v>
       </c>
       <c r="J5">
-        <v>0.945691915096447</v>
+        <v>0.9396797639857967</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>141.292844182643</v>
+        <v>181.8232256666666</v>
       </c>
       <c r="N5">
-        <v>141.292844182643</v>
+        <v>545.4696769999999</v>
       </c>
       <c r="O5">
-        <v>0.5335176667404401</v>
+        <v>0.5898296910336229</v>
       </c>
       <c r="P5">
-        <v>0.5335176667404401</v>
+        <v>0.5898296910336229</v>
       </c>
       <c r="Q5">
-        <v>84373.79143979217</v>
+        <v>109826.9028843242</v>
       </c>
       <c r="R5">
-        <v>84373.79143979217</v>
+        <v>988442.1259589181</v>
       </c>
       <c r="S5">
-        <v>0.5045433439975547</v>
+        <v>0.5542510248622902</v>
       </c>
       <c r="T5">
-        <v>0.5045433439975547</v>
+        <v>0.5542510248622902</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -776,52 +776,52 @@
         <v>21</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>597.1554463913679</v>
+        <v>604.0312093333333</v>
       </c>
       <c r="H6">
-        <v>597.1554463913679</v>
+        <v>1812.093628</v>
       </c>
       <c r="I6">
-        <v>0.945691915096447</v>
+        <v>0.9396797639857967</v>
       </c>
       <c r="J6">
-        <v>0.945691915096447</v>
+        <v>0.9396797639857967</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>2.24362358528559</v>
+        <v>2.367786666666667</v>
       </c>
       <c r="N6">
-        <v>2.24362358528559</v>
+        <v>7.10336</v>
       </c>
       <c r="O6">
-        <v>0.008471857348402325</v>
+        <v>0.007681036748263821</v>
       </c>
       <c r="P6">
-        <v>0.008471857348402325</v>
+        <v>0.007681036748263821</v>
       </c>
       <c r="Q6">
-        <v>1339.792043605418</v>
+        <v>1430.217043710009</v>
       </c>
       <c r="R6">
-        <v>1339.792043605418</v>
+        <v>12871.95339339008</v>
       </c>
       <c r="S6">
-        <v>0.008011767000234503</v>
+        <v>0.007217714798774778</v>
       </c>
       <c r="T6">
-        <v>0.008011767000234503</v>
+        <v>0.007217714798774778</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -838,52 +838,52 @@
         <v>22</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>597.1554463913679</v>
+        <v>604.0312093333333</v>
       </c>
       <c r="H7">
-        <v>597.1554463913679</v>
+        <v>1812.093628</v>
       </c>
       <c r="I7">
-        <v>0.945691915096447</v>
+        <v>0.9396797639857967</v>
       </c>
       <c r="J7">
-        <v>0.945691915096447</v>
+        <v>0.9396797639857967</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>121.296082287781</v>
+        <v>124.0729296666667</v>
       </c>
       <c r="N7">
-        <v>121.296082287781</v>
+        <v>372.218789</v>
       </c>
       <c r="O7">
-        <v>0.4580104759111576</v>
+        <v>0.4024892722181133</v>
       </c>
       <c r="P7">
-        <v>0.4580104759111576</v>
+        <v>0.4024892722181133</v>
       </c>
       <c r="Q7">
-        <v>72432.61616408397</v>
+        <v>74943.92175208627</v>
       </c>
       <c r="R7">
-        <v>72432.61616408397</v>
+        <v>674495.2957687766</v>
       </c>
       <c r="S7">
-        <v>0.4331368040986577</v>
+        <v>0.3782110243247317</v>
       </c>
       <c r="T7">
-        <v>0.4331368040986577</v>
+        <v>0.3782110243247317</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -900,52 +900,52 @@
         <v>20</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>28.1881897991505</v>
+        <v>28.39480333333333</v>
       </c>
       <c r="H8">
-        <v>28.1881897991505</v>
+        <v>85.18441</v>
       </c>
       <c r="I8">
-        <v>0.04464054268507817</v>
+        <v>0.04417325078970442</v>
       </c>
       <c r="J8">
-        <v>0.04464054268507817</v>
+        <v>0.04417325078970442</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>141.292844182643</v>
+        <v>181.8232256666666</v>
       </c>
       <c r="N8">
-        <v>141.292844182643</v>
+        <v>545.4696769999999</v>
       </c>
       <c r="O8">
-        <v>0.5335176667404401</v>
+        <v>0.5898296910336229</v>
       </c>
       <c r="P8">
-        <v>0.5335176667404401</v>
+        <v>0.5898296910336229</v>
       </c>
       <c r="Q8">
-        <v>3982.789509082138</v>
+        <v>5162.834734237284</v>
       </c>
       <c r="R8">
-        <v>3982.789509082138</v>
+        <v>46465.51260813556</v>
       </c>
       <c r="S8">
-        <v>0.02381651817536993</v>
+        <v>0.0260546948652421</v>
       </c>
       <c r="T8">
-        <v>0.02381651817536993</v>
+        <v>0.0260546948652421</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -962,52 +962,52 @@
         <v>21</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>28.1881897991505</v>
+        <v>28.39480333333333</v>
       </c>
       <c r="H9">
-        <v>28.1881897991505</v>
+        <v>85.18441</v>
       </c>
       <c r="I9">
-        <v>0.04464054268507817</v>
+        <v>0.04417325078970442</v>
       </c>
       <c r="J9">
-        <v>0.04464054268507817</v>
+        <v>0.04417325078970442</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>2.24362358528559</v>
+        <v>2.367786666666667</v>
       </c>
       <c r="N9">
-        <v>2.24362358528559</v>
+        <v>7.10336</v>
       </c>
       <c r="O9">
-        <v>0.008471857348402325</v>
+        <v>0.007681036748263821</v>
       </c>
       <c r="P9">
-        <v>0.008471857348402325</v>
+        <v>0.007681036748263821</v>
       </c>
       <c r="Q9">
-        <v>63.24368745988075</v>
+        <v>67.2328367352889</v>
       </c>
       <c r="R9">
-        <v>63.24368745988075</v>
+        <v>605.0955306176</v>
       </c>
       <c r="S9">
-        <v>0.0003781883095832471</v>
+        <v>0.0003392963626059935</v>
       </c>
       <c r="T9">
-        <v>0.0003781883095832471</v>
+        <v>0.0003392963626059935</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1024,52 +1024,52 @@
         <v>22</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>28.1881897991505</v>
+        <v>28.39480333333333</v>
       </c>
       <c r="H10">
-        <v>28.1881897991505</v>
+        <v>85.18441</v>
       </c>
       <c r="I10">
-        <v>0.04464054268507817</v>
+        <v>0.04417325078970442</v>
       </c>
       <c r="J10">
-        <v>0.04464054268507817</v>
+        <v>0.04417325078970442</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>121.296082287781</v>
+        <v>124.0729296666667</v>
       </c>
       <c r="N10">
-        <v>121.296082287781</v>
+        <v>372.218789</v>
       </c>
       <c r="O10">
-        <v>0.4580104759111576</v>
+        <v>0.4024892722181133</v>
       </c>
       <c r="P10">
-        <v>0.4580104759111576</v>
+        <v>0.4024892722181133</v>
       </c>
       <c r="Q10">
-        <v>3419.116989421348</v>
+        <v>3523.026436875499</v>
       </c>
       <c r="R10">
-        <v>3419.116989421348</v>
+        <v>31707.23793187949</v>
       </c>
       <c r="S10">
-        <v>0.02044583620012499</v>
+        <v>0.01777925956185633</v>
       </c>
       <c r="T10">
-        <v>0.02044583620012499</v>
+        <v>0.01777925956185633</v>
       </c>
     </row>
   </sheetData>
